--- a/newDataFile.xlsx
+++ b/newDataFile.xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>999</v>
+        <v>6666</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/newDataFile.xlsx
+++ b/newDataFile.xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>6666</v>
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>666</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>6000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/newDataFile.xlsx
+++ b/newDataFile.xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>111</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
